--- a/Game_2048/그림판.xlsx
+++ b/Game_2048/그림판.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yu_u\Documents\Game_2048\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba34ea3a9a3f309e/Documents/GitHub/game_2048-/Game_2048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25911DDB-53C3-40B6-9A0A-F0D87F211630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{25911DDB-53C3-40B6-9A0A-F0D87F211630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E211FD01-17FF-4C22-B81A-161BE8C3726A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="945" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="벡터상점" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="136">
   <si>
     <t>&lt;&lt; "  ■■    ■■■     ■■       ■■■    ■■■■■■■■■■■  ■■■■■■  " &lt;&lt; "\n"</t>
   </si>
@@ -1193,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1654,6 +1655,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5279,6 +5283,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -5548,13 +5556,13 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="60" width="3" style="3" customWidth="1"/>
     <col min="61" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5566,7 +5574,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
@@ -5575,7 +5583,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="E4" s="4"/>
       <c r="G4" s="2"/>
@@ -5588,7 +5596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5599,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="G6" s="1"/>
       <c r="K6" s="2"/>
@@ -5609,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
@@ -5624,7 +5632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -5635,7 +5643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5650,12 +5658,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="Z10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="Z11" s="3" t="s">
         <v>7</v>
       </c>
@@ -5674,17 +5682,17 @@
       <selection activeCell="BA58" sqref="BA58:BB58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="59" width="3" style="3"/>
     <col min="60" max="60" width="3" style="7"/>
     <col min="61" max="16384" width="3" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="J2" s="31"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -5746,7 +5754,7 @@
       <c r="BG3" s="9"/>
       <c r="BH3" s="10"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -5759,7 +5767,7 @@
       <c r="AN4" s="7"/>
       <c r="AO4" s="11"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="C5" s="24"/>
       <c r="E5" s="24"/>
@@ -5779,7 +5787,7 @@
       <c r="AN5" s="7"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5802,7 +5810,7 @@
       <c r="AY6" s="30"/>
       <c r="AZ6" s="30"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="C7" s="24"/>
       <c r="D7" s="23"/>
@@ -5825,7 +5833,7 @@
       <c r="AY7" s="30"/>
       <c r="AZ7" s="30"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="F8" s="21"/>
       <c r="I8" s="15"/>
@@ -5842,7 +5850,7 @@
       <c r="AX8" s="30"/>
       <c r="AY8" s="30"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="G9" s="21"/>
       <c r="H9" s="15"/>
@@ -5863,7 +5871,7 @@
       <c r="AY9" s="17"/>
       <c r="AZ9" s="17"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="G10" s="15"/>
       <c r="H10" s="21"/>
@@ -5888,7 +5896,7 @@
       <c r="BA10" s="17"/>
       <c r="BB10" s="17"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="F11" s="15"/>
       <c r="I11" s="21"/>
@@ -5915,7 +5923,7 @@
       <c r="BB11" s="17"/>
       <c r="BC11" s="17"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="E12" s="15"/>
       <c r="J12" s="21"/>
@@ -5941,7 +5949,7 @@
       <c r="BB12" s="17"/>
       <c r="BC12" s="17"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="E13" s="15"/>
       <c r="K13" s="21"/>
@@ -5970,7 +5978,7 @@
       <c r="BC13" s="17"/>
       <c r="BD13" s="17"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="D14" s="15"/>
       <c r="L14" s="21"/>
@@ -5999,7 +6007,7 @@
       <c r="BC14" s="26"/>
       <c r="BD14" s="26"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="D15" s="15"/>
       <c r="M15" s="21"/>
@@ -6030,7 +6038,7 @@
       <c r="BC15" s="26"/>
       <c r="BD15" s="26"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="15"/>
       <c r="N16" s="21"/>
@@ -6063,7 +6071,7 @@
       <c r="BC16" s="26"/>
       <c r="BD16" s="26"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="C17" s="15"/>
       <c r="K17" s="25"/>
@@ -6095,7 +6103,7 @@
       <c r="BC17" s="26"/>
       <c r="BD17" s="29"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="C18" s="15"/>
       <c r="J18" s="25"/>
@@ -6124,7 +6132,7 @@
       <c r="BC18" s="29"/>
       <c r="BD18" s="29"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="G19" s="25"/>
@@ -6153,7 +6161,7 @@
       <c r="BB19" s="26"/>
       <c r="BC19" s="29"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="15"/>
       <c r="C20" s="25"/>
@@ -6182,7 +6190,7 @@
       <c r="BB20" s="29"/>
       <c r="BC20" s="29"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -6193,7 +6201,7 @@
       <c r="AN21" s="7"/>
       <c r="AO21" s="11"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6255,10 +6263,10 @@
       <c r="BG22" s="13"/>
       <c r="BH22" s="14"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="BH23" s="3"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6320,7 +6328,7 @@
       <c r="BG24" s="9"/>
       <c r="BH24" s="10"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
@@ -6347,7 +6355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="T26" s="7"/>
       <c r="U26" s="11"/>
@@ -6371,7 +6379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="T27" s="7"/>
       <c r="U27" s="11"/>
@@ -6404,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="T28" s="7"/>
       <c r="U28" s="11"/>
@@ -6442,7 +6450,7 @@
       </c>
       <c r="BA28" s="45"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="T29" s="7"/>
       <c r="U29" s="11"/>
@@ -6474,7 +6482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="T30" s="7"/>
       <c r="U30" s="11"/>
@@ -6501,7 +6509,7 @@
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="T31" s="7"/>
       <c r="U31" s="11"/>
@@ -6528,7 +6536,7 @@
       <c r="BB31" s="16"/>
       <c r="BC31" s="16"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="T32" s="7"/>
       <c r="U32" s="11"/>
@@ -6561,7 +6569,7 @@
       <c r="BC32" s="16"/>
       <c r="BD32" s="16"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="T33" s="7"/>
       <c r="U33" s="11"/>
@@ -6593,7 +6601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="T34" s="7"/>
       <c r="U34" s="11"/>
@@ -6618,7 +6626,7 @@
       <c r="BD34" s="22"/>
       <c r="BE34" s="22"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="T35" s="7"/>
       <c r="U35" s="11"/>
@@ -6643,7 +6651,7 @@
       <c r="BD35" s="22"/>
       <c r="BE35" s="22"/>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="T36" s="7"/>
       <c r="U36" s="11"/>
@@ -6668,7 +6676,7 @@
       <c r="BD36" s="22"/>
       <c r="BE36" s="22"/>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="T37" s="7"/>
       <c r="U37" s="11"/>
@@ -6698,7 +6706,7 @@
       </c>
       <c r="BD37" s="22"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="T38" s="7"/>
       <c r="U38" s="11"/>
@@ -6723,7 +6731,7 @@
       <c r="BC38" s="22"/>
       <c r="BD38" s="22"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="T39" s="7"/>
       <c r="U39" s="11"/>
@@ -6743,7 +6751,7 @@
       <c r="AU39" s="22"/>
       <c r="BC39" s="22"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="T40" s="7"/>
       <c r="U40" s="11"/>
@@ -6766,7 +6774,7 @@
       <c r="BA40" s="22"/>
       <c r="BB40" s="22"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="T41" s="7"/>
       <c r="U41" s="11"/>
@@ -6791,7 +6799,7 @@
       <c r="AY41" s="22"/>
       <c r="AZ41" s="22"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="T42" s="7"/>
       <c r="U42" s="11"/>
@@ -6806,7 +6814,7 @@
       <c r="AN42" s="7"/>
       <c r="AO42" s="11"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -6868,7 +6876,7 @@
       <c r="BG43" s="13"/>
       <c r="BH43" s="14"/>
     </row>
-    <row r="1048576" spans="31:31" x14ac:dyDescent="0.4">
+    <row r="1048576" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE1048576" s="3" t="s">
         <v>9</v>
       </c>
@@ -6884,26 +6892,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GQ141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM9" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DK34" sqref="DK34"/>
+    <sheetView tabSelected="1" topLeftCell="CT28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DE40" sqref="DE40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="68" width="2.8984375" style="3"/>
-    <col min="69" max="74" width="2.8984375" style="3" customWidth="1"/>
-    <col min="75" max="75" width="2.8984375" style="3"/>
-    <col min="76" max="81" width="2.8984375" style="3" customWidth="1"/>
-    <col min="82" max="82" width="2.8984375" style="3"/>
-    <col min="83" max="87" width="2.8984375" style="3" customWidth="1"/>
-    <col min="88" max="103" width="2.8984375" style="3"/>
-    <col min="104" max="104" width="2.8984375" style="3" customWidth="1"/>
-    <col min="105" max="124" width="2.8984375" style="3"/>
-    <col min="125" max="125" width="2.8984375" style="3" customWidth="1"/>
-    <col min="126" max="16384" width="2.8984375" style="3"/>
+    <col min="1" max="68" width="2.875" style="3"/>
+    <col min="69" max="74" width="2.875" style="3" customWidth="1"/>
+    <col min="75" max="75" width="2.875" style="3"/>
+    <col min="76" max="81" width="2.875" style="3" customWidth="1"/>
+    <col min="82" max="82" width="2.875" style="3"/>
+    <col min="83" max="87" width="2.875" style="3" customWidth="1"/>
+    <col min="88" max="103" width="2.875" style="3"/>
+    <col min="104" max="104" width="2.875" style="3" customWidth="1"/>
+    <col min="105" max="124" width="2.875" style="3"/>
+    <col min="125" max="125" width="2.875" style="3" customWidth="1"/>
+    <col min="126" max="16384" width="2.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -7038,7 +7046,7 @@
       <c r="EB1" s="54"/>
       <c r="EC1" s="54"/>
     </row>
-    <row r="2" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -7203,7 +7211,7 @@
       <c r="GC2" s="54"/>
       <c r="GD2" s="54"/>
     </row>
-    <row r="3" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -7368,7 +7376,7 @@
       <c r="GC3" s="54"/>
       <c r="GD3" s="54"/>
     </row>
-    <row r="4" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -7533,7 +7541,7 @@
       <c r="GC4" s="54"/>
       <c r="GD4" s="54"/>
     </row>
-    <row r="5" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -7698,7 +7706,7 @@
       <c r="GC5" s="54"/>
       <c r="GD5" s="54"/>
     </row>
-    <row r="6" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -7863,7 +7871,7 @@
       <c r="GC6" s="58"/>
       <c r="GD6" s="59"/>
     </row>
-    <row r="7" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -8028,7 +8036,7 @@
       <c r="GC7" s="54"/>
       <c r="GD7" s="56"/>
     </row>
-    <row r="8" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -8193,7 +8201,7 @@
       <c r="GC8" s="54"/>
       <c r="GD8" s="56"/>
     </row>
-    <row r="9" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -8358,7 +8366,7 @@
       <c r="GC9" s="54"/>
       <c r="GD9" s="56"/>
     </row>
-    <row r="10" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -8513,7 +8521,7 @@
       <c r="GC10" s="54"/>
       <c r="GD10" s="56"/>
     </row>
-    <row r="11" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -8676,7 +8684,7 @@
       <c r="GC11" s="54"/>
       <c r="GD11" s="56"/>
     </row>
-    <row r="12" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -8839,7 +8847,7 @@
       <c r="GC12" s="54"/>
       <c r="GD12" s="56"/>
     </row>
-    <row r="13" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -9016,7 +9024,7 @@
       <c r="GC13" s="54"/>
       <c r="GD13" s="56"/>
     </row>
-    <row r="14" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -9185,7 +9193,7 @@
       <c r="GC14" s="54"/>
       <c r="GD14" s="56"/>
     </row>
-    <row r="15" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -9354,7 +9362,7 @@
       <c r="GC15" s="54"/>
       <c r="GD15" s="56"/>
     </row>
-    <row r="16" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -9563,7 +9571,7 @@
       <c r="GC16" s="54"/>
       <c r="GD16" s="56"/>
     </row>
-    <row r="17" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -9764,7 +9772,7 @@
       <c r="GC17" s="54"/>
       <c r="GD17" s="56"/>
     </row>
-    <row r="18" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -9961,7 +9969,7 @@
       <c r="GC18" s="54"/>
       <c r="GD18" s="56"/>
     </row>
-    <row r="19" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -10154,7 +10162,7 @@
       <c r="GC19" s="54"/>
       <c r="GD19" s="56"/>
     </row>
-    <row r="20" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -10371,7 +10379,7 @@
       <c r="GC20" s="54"/>
       <c r="GD20" s="56"/>
     </row>
-    <row r="21" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -10550,7 +10558,7 @@
       <c r="GC21" s="54"/>
       <c r="GD21" s="56"/>
     </row>
-    <row r="22" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -10729,7 +10737,7 @@
       <c r="GC22" s="54"/>
       <c r="GD22" s="56"/>
     </row>
-    <row r="23" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -10887,7 +10895,7 @@
       <c r="GC23" s="54"/>
       <c r="GD23" s="56"/>
     </row>
-    <row r="24" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -11045,7 +11053,7 @@
       <c r="GC24" s="54"/>
       <c r="GD24" s="56"/>
     </row>
-    <row r="25" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -11209,7 +11217,7 @@
       <c r="GP25" s="54"/>
       <c r="GQ25" s="54"/>
     </row>
-    <row r="26" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -11360,7 +11368,7 @@
       <c r="GP26" s="54"/>
       <c r="GQ26" s="54"/>
     </row>
-    <row r="27" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -11511,7 +11519,7 @@
       <c r="GP27" s="54"/>
       <c r="GQ27" s="54"/>
     </row>
-    <row r="28" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -11662,7 +11670,7 @@
       <c r="GP28" s="54"/>
       <c r="GQ28" s="54"/>
     </row>
-    <row r="29" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -11860,7 +11868,7 @@
       <c r="GP29" s="54"/>
       <c r="GQ29" s="54"/>
     </row>
-    <row r="30" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -12036,7 +12044,7 @@
       <c r="GP30" s="54"/>
       <c r="GQ30" s="54"/>
     </row>
-    <row r="31" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -12212,7 +12220,7 @@
       <c r="GP31" s="54"/>
       <c r="GQ31" s="54"/>
     </row>
-    <row r="32" spans="1:199" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -12381,7 +12389,7 @@
       <c r="GC32" s="54"/>
       <c r="GD32" s="56"/>
     </row>
-    <row r="33" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -12546,7 +12554,7 @@
       <c r="GC33" s="54"/>
       <c r="GD33" s="56"/>
     </row>
-    <row r="34" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A34" s="54"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -12711,7 +12719,7 @@
       <c r="GC34" s="54"/>
       <c r="GD34" s="56"/>
     </row>
-    <row r="35" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A35" s="54"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -12807,7 +12815,7 @@
       <c r="CM35" s="54"/>
       <c r="CN35" s="54"/>
       <c r="CO35" s="54"/>
-      <c r="CP35" s="60" t="s">
+      <c r="CP35" s="154" t="s">
         <v>41</v>
       </c>
       <c r="CQ35" s="54" t="s">
@@ -12998,7 +13006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -13285,7 +13293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -13450,7 +13458,7 @@
       <c r="GC37" s="55"/>
       <c r="GD37" s="83"/>
     </row>
-    <row r="38" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A38" s="54"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -13619,7 +13627,7 @@
       <c r="GC38" s="54"/>
       <c r="GD38" s="56"/>
     </row>
-    <row r="39" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -13800,7 +13808,7 @@
       <c r="GC39" s="54"/>
       <c r="GD39" s="56"/>
     </row>
-    <row r="40" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -13977,7 +13985,7 @@
       <c r="GC40" s="54"/>
       <c r="GD40" s="56"/>
     </row>
-    <row r="41" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A41" s="54"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -14178,7 +14186,7 @@
       <c r="GC41" s="54"/>
       <c r="GD41" s="56"/>
     </row>
-    <row r="42" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -14333,7 +14341,7 @@
       <c r="GC42" s="54"/>
       <c r="GD42" s="56"/>
     </row>
-    <row r="43" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A43" s="54"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -14510,7 +14518,7 @@
       <c r="GC43" s="54"/>
       <c r="GD43" s="56"/>
     </row>
-    <row r="44" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A44" s="54"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -14675,7 +14683,7 @@
       <c r="GC44" s="54"/>
       <c r="GD44" s="56"/>
     </row>
-    <row r="45" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A45" s="54"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -14852,7 +14860,7 @@
       <c r="GC45" s="54"/>
       <c r="GD45" s="56"/>
     </row>
-    <row r="46" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -15025,7 +15033,7 @@
       <c r="GC46" s="54"/>
       <c r="GD46" s="56"/>
     </row>
-    <row r="47" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A47" s="54"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -15200,7 +15208,7 @@
       <c r="GC47" s="54"/>
       <c r="GD47" s="56"/>
     </row>
-    <row r="48" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -15375,7 +15383,7 @@
       <c r="GC48" s="54"/>
       <c r="GD48" s="56"/>
     </row>
-    <row r="49" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A49" s="54"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -15546,7 +15554,7 @@
       <c r="GC49" s="54"/>
       <c r="GD49" s="56"/>
     </row>
-    <row r="50" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A50" s="54"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -15711,7 +15719,7 @@
       <c r="GC50" s="54"/>
       <c r="GD50" s="56"/>
     </row>
-    <row r="51" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -15876,7 +15884,7 @@
       <c r="GC51" s="54"/>
       <c r="GD51" s="56"/>
     </row>
-    <row r="52" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -16041,7 +16049,7 @@
       <c r="GC52" s="54"/>
       <c r="GD52" s="56"/>
     </row>
-    <row r="53" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -16206,7 +16214,7 @@
       <c r="GC53" s="54"/>
       <c r="GD53" s="56"/>
     </row>
-    <row r="54" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A54" s="54"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -16371,7 +16379,7 @@
       <c r="GC54" s="54"/>
       <c r="GD54" s="56"/>
     </row>
-    <row r="55" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A55" s="54"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -16536,7 +16544,7 @@
       <c r="GC55" s="54"/>
       <c r="GD55" s="56"/>
     </row>
-    <row r="56" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A56" s="54"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -16701,7 +16709,7 @@
       <c r="GC56" s="54"/>
       <c r="GD56" s="56"/>
     </row>
-    <row r="57" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A57" s="54"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -16866,7 +16874,7 @@
       <c r="GC57" s="54"/>
       <c r="GD57" s="56"/>
     </row>
-    <row r="58" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
       <c r="C58" s="58"/>
@@ -17031,7 +17039,7 @@
       <c r="GC58" s="54"/>
       <c r="GD58" s="56"/>
     </row>
-    <row r="59" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A59" s="54"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
@@ -17222,7 +17230,7 @@
       <c r="GC59" s="54"/>
       <c r="GD59" s="56"/>
     </row>
-    <row r="60" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A60" s="54"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
@@ -17391,7 +17399,7 @@
       <c r="GC60" s="54"/>
       <c r="GD60" s="56"/>
     </row>
-    <row r="61" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A61" s="54"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -17560,7 +17568,7 @@
       <c r="GC61" s="54"/>
       <c r="GD61" s="56"/>
     </row>
-    <row r="62" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A62" s="54"/>
       <c r="B62" s="54"/>
       <c r="C62" s="55"/>
@@ -17731,7 +17739,7 @@
       <c r="GC62" s="54"/>
       <c r="GD62" s="56"/>
     </row>
-    <row r="63" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A63" s="54"/>
       <c r="B63" s="54"/>
       <c r="C63" s="55"/>
@@ -17898,7 +17906,7 @@
       <c r="GC63" s="54"/>
       <c r="GD63" s="56"/>
     </row>
-    <row r="64" spans="1:186" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A64" s="54"/>
       <c r="B64" s="54"/>
       <c r="C64" s="54"/>
@@ -18067,7 +18075,7 @@
       <c r="GC64" s="64"/>
       <c r="GD64" s="65"/>
     </row>
-    <row r="65" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A65" s="54"/>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -18204,7 +18212,7 @@
       <c r="EB65" s="54"/>
       <c r="EC65" s="54"/>
     </row>
-    <row r="66" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A66" s="54"/>
       <c r="B66" s="54"/>
       <c r="C66" s="54"/>
@@ -18343,7 +18351,7 @@
       <c r="EB66" s="54"/>
       <c r="EC66" s="54"/>
     </row>
-    <row r="67" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A67" s="54"/>
       <c r="B67" s="54"/>
       <c r="C67" s="54"/>
@@ -18480,7 +18488,7 @@
       <c r="EB67" s="54"/>
       <c r="EC67" s="54"/>
     </row>
-    <row r="68" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A68" s="54"/>
       <c r="B68" s="54"/>
       <c r="C68" s="54"/>
@@ -18619,7 +18627,7 @@
       <c r="EB68" s="54"/>
       <c r="EC68" s="54"/>
     </row>
-    <row r="69" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A69" s="54"/>
       <c r="B69" s="54"/>
       <c r="C69" s="54"/>
@@ -18760,7 +18768,7 @@
       <c r="EB69" s="54"/>
       <c r="EC69" s="54"/>
     </row>
-    <row r="70" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A70" s="54"/>
       <c r="B70" s="54"/>
       <c r="C70" s="54"/>
@@ -18899,7 +18907,7 @@
       <c r="EB70" s="54"/>
       <c r="EC70" s="54"/>
     </row>
-    <row r="71" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A71" s="54"/>
       <c r="B71" s="54"/>
       <c r="C71" s="54"/>
@@ -19092,7 +19100,7 @@
       <c r="EB71" s="54"/>
       <c r="EC71" s="54"/>
     </row>
-    <row r="72" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A72" s="54"/>
       <c r="B72" s="54"/>
       <c r="C72" s="54"/>
@@ -19243,7 +19251,7 @@
       <c r="EB72" s="54"/>
       <c r="EC72" s="54"/>
     </row>
-    <row r="73" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A73" s="54"/>
       <c r="B73" s="54"/>
       <c r="C73" s="54"/>
@@ -19392,7 +19400,7 @@
       <c r="EB73" s="54"/>
       <c r="EC73" s="54"/>
     </row>
-    <row r="74" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A74" s="54"/>
       <c r="B74" s="54"/>
       <c r="C74" s="54"/>
@@ -19539,7 +19547,7 @@
       <c r="EB74" s="54"/>
       <c r="EC74" s="54"/>
     </row>
-    <row r="75" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A75" s="54"/>
       <c r="B75" s="54"/>
       <c r="C75" s="54"/>
@@ -19680,7 +19688,7 @@
       <c r="EB75" s="54"/>
       <c r="EC75" s="54"/>
     </row>
-    <row r="76" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A76" s="54"/>
       <c r="B76" s="54"/>
       <c r="C76" s="54"/>
@@ -19827,7 +19835,7 @@
       <c r="EB76" s="54"/>
       <c r="EC76" s="54"/>
     </row>
-    <row r="77" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A77" s="54"/>
       <c r="B77" s="54"/>
       <c r="C77" s="54"/>
@@ -19971,7 +19979,7 @@
       <c r="EB77" s="54"/>
       <c r="EC77" s="54"/>
     </row>
-    <row r="78" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A78" s="54"/>
       <c r="B78" s="54"/>
       <c r="C78" s="54"/>
@@ -20112,7 +20120,7 @@
       <c r="EB78" s="54"/>
       <c r="EC78" s="54"/>
     </row>
-    <row r="79" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A79" s="54"/>
       <c r="B79" s="54"/>
       <c r="C79" s="54"/>
@@ -20249,7 +20257,7 @@
       <c r="EB79" s="54"/>
       <c r="EC79" s="54"/>
     </row>
-    <row r="80" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A80" s="54"/>
       <c r="B80" s="54"/>
       <c r="C80" s="54"/>
@@ -20390,7 +20398,7 @@
       <c r="EB80" s="54"/>
       <c r="EC80" s="54"/>
     </row>
-    <row r="81" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A81" s="54"/>
       <c r="B81" s="54"/>
       <c r="C81" s="54"/>
@@ -20539,7 +20547,7 @@
       <c r="EB81" s="54"/>
       <c r="EC81" s="54"/>
     </row>
-    <row r="82" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A82" s="54"/>
       <c r="B82" s="54"/>
       <c r="C82" s="54"/>
@@ -20676,7 +20684,7 @@
       <c r="EB82" s="54"/>
       <c r="EC82" s="54"/>
     </row>
-    <row r="83" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A83" s="54"/>
       <c r="B83" s="54"/>
       <c r="C83" s="54"/>
@@ -20831,7 +20839,7 @@
       <c r="EB83" s="54"/>
       <c r="EC83" s="54"/>
     </row>
-    <row r="84" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A84" s="54"/>
       <c r="B84" s="54"/>
       <c r="C84" s="54"/>
@@ -20960,7 +20968,7 @@
       <c r="EB84" s="54"/>
       <c r="EC84" s="54"/>
     </row>
-    <row r="85" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A85" s="54"/>
       <c r="B85" s="54"/>
       <c r="C85" s="54"/>
@@ -21089,7 +21097,7 @@
       <c r="EB85" s="54"/>
       <c r="EC85" s="54"/>
     </row>
-    <row r="86" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A86" s="54"/>
       <c r="B86" s="54"/>
       <c r="C86" s="54"/>
@@ -21278,7 +21286,7 @@
       <c r="EB86" s="54"/>
       <c r="EC86" s="54"/>
     </row>
-    <row r="87" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A87" s="64"/>
       <c r="B87" s="64"/>
       <c r="C87" s="64"/>
@@ -21473,7 +21481,7 @@
       <c r="EB87" s="54"/>
       <c r="EC87" s="54"/>
     </row>
-    <row r="88" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A88" s="54"/>
       <c r="B88" s="54"/>
       <c r="C88" s="54"/>
@@ -21578,7 +21586,7 @@
       <c r="CY88" s="54"/>
       <c r="CZ88" s="54"/>
     </row>
-    <row r="89" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A89" s="54"/>
       <c r="B89" s="54"/>
       <c r="C89" s="54"/>
@@ -21692,7 +21700,7 @@
       <c r="DD89" s="113"/>
       <c r="DE89" s="113"/>
     </row>
-    <row r="90" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A90" s="54"/>
       <c r="B90" s="54"/>
       <c r="C90" s="54"/>
@@ -21822,7 +21830,7 @@
       </c>
       <c r="DE90" s="113"/>
     </row>
-    <row r="91" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A91" s="54"/>
       <c r="B91" s="54"/>
       <c r="C91" s="54"/>
@@ -21944,7 +21952,7 @@
       </c>
       <c r="DE91" s="113"/>
     </row>
-    <row r="92" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A92" s="54"/>
       <c r="B92" s="54"/>
       <c r="C92" s="54"/>
@@ -22074,7 +22082,7 @@
       </c>
       <c r="DE92" s="113"/>
     </row>
-    <row r="93" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A93" s="54"/>
       <c r="B93" s="54"/>
       <c r="C93" s="54"/>
@@ -22196,7 +22204,7 @@
       </c>
       <c r="DE93" s="113"/>
     </row>
-    <row r="94" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A94" s="54"/>
       <c r="B94" s="54"/>
       <c r="C94" s="54"/>
@@ -22326,7 +22334,7 @@
       </c>
       <c r="DE94" s="113"/>
     </row>
-    <row r="95" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A95" s="54"/>
       <c r="B95" s="54"/>
       <c r="C95" s="54"/>
@@ -22494,7 +22502,7 @@
       </c>
       <c r="DE95" s="113"/>
     </row>
-    <row r="96" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A96" s="54"/>
       <c r="B96" s="54"/>
       <c r="C96" s="54"/>
@@ -22646,7 +22654,7 @@
       <c r="DD96" s="113"/>
       <c r="DE96" s="113"/>
     </row>
-    <row r="97" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A97" s="54"/>
       <c r="B97" s="54"/>
       <c r="C97" s="54"/>
@@ -22789,7 +22797,7 @@
       <c r="CX97" s="110"/>
       <c r="CY97" s="54"/>
     </row>
-    <row r="98" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A98" s="54"/>
       <c r="B98" s="54"/>
       <c r="C98" s="54"/>
@@ -22933,7 +22941,7 @@
       <c r="CX98" s="110"/>
       <c r="CY98" s="54"/>
     </row>
-    <row r="99" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="54"/>
       <c r="C99" s="54"/>
@@ -23079,7 +23087,7 @@
       <c r="CX99" s="100"/>
       <c r="CY99" s="54"/>
     </row>
-    <row r="100" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A100" s="54"/>
       <c r="B100" s="54"/>
       <c r="C100" s="54"/>
@@ -23219,7 +23227,7 @@
       <c r="CX100" s="110"/>
       <c r="CY100" s="54"/>
     </row>
-    <row r="101" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A101" s="54"/>
       <c r="B101" s="54"/>
       <c r="C101" s="54"/>
@@ -23365,7 +23373,7 @@
       <c r="CX101" s="54"/>
       <c r="CY101" s="54"/>
     </row>
-    <row r="102" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A102" s="54"/>
       <c r="B102" s="54"/>
       <c r="C102" s="54"/>
@@ -23525,7 +23533,7 @@
       <c r="CX102" s="54"/>
       <c r="CY102" s="54"/>
     </row>
-    <row r="103" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A103" s="54"/>
       <c r="B103" s="54"/>
       <c r="C103" s="54"/>
@@ -23662,7 +23670,7 @@
       <c r="CY103" s="54"/>
       <c r="CZ103" s="54"/>
     </row>
-    <row r="104" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A104" s="54"/>
       <c r="B104" s="54"/>
       <c r="C104" s="54"/>
@@ -23783,7 +23791,7 @@
       <c r="CY104" s="54"/>
       <c r="CZ104" s="54"/>
     </row>
-    <row r="105" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A105" s="54"/>
       <c r="B105" s="54"/>
       <c r="C105" s="54"/>
@@ -23918,7 +23926,7 @@
       <c r="CY105" s="54"/>
       <c r="CZ105" s="54"/>
     </row>
-    <row r="106" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A106" s="54"/>
       <c r="B106" s="54"/>
       <c r="C106" s="54"/>
@@ -24049,7 +24057,7 @@
       <c r="CY106" s="54"/>
       <c r="CZ106" s="54"/>
     </row>
-    <row r="107" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A107" s="54"/>
       <c r="B107" s="54"/>
       <c r="C107" s="54"/>
@@ -24178,7 +24186,7 @@
       <c r="CY107" s="54"/>
       <c r="CZ107" s="54"/>
     </row>
-    <row r="108" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A108" s="54"/>
       <c r="B108" s="54"/>
       <c r="C108" s="54"/>
@@ -24315,7 +24323,7 @@
       <c r="CY108" s="54"/>
       <c r="CZ108" s="54"/>
     </row>
-    <row r="109" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A109" s="54"/>
       <c r="B109" s="54"/>
       <c r="C109" s="54"/>
@@ -24476,7 +24484,7 @@
       <c r="CY109" s="54"/>
       <c r="CZ109" s="54"/>
     </row>
-    <row r="110" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A110" s="54"/>
       <c r="B110" s="54"/>
       <c r="C110" s="54"/>
@@ -24613,7 +24621,7 @@
       <c r="CY110" s="54"/>
       <c r="CZ110" s="54"/>
     </row>
-    <row r="111" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A111" s="54"/>
       <c r="B111" s="54"/>
       <c r="C111" s="54"/>
@@ -24742,7 +24750,7 @@
       <c r="CY111" s="54"/>
       <c r="CZ111" s="54"/>
     </row>
-    <row r="112" spans="1:108" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A112" s="54"/>
       <c r="B112" s="54"/>
       <c r="C112" s="54"/>
@@ -24895,7 +24903,7 @@
       </c>
       <c r="DD112" s="132"/>
     </row>
-    <row r="113" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A113" s="54"/>
       <c r="B113" s="54"/>
       <c r="C113" s="54"/>
@@ -25048,7 +25056,7 @@
       </c>
       <c r="DD113" s="132"/>
     </row>
-    <row r="114" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A114" s="54"/>
       <c r="B114" s="54"/>
       <c r="C114" s="54"/>
@@ -25201,7 +25209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A115" s="54"/>
       <c r="B115" s="54"/>
       <c r="C115" s="54"/>
@@ -25351,7 +25359,7 @@
       </c>
       <c r="DD115" s="133"/>
     </row>
-    <row r="116" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A116" s="54"/>
       <c r="B116" s="54"/>
       <c r="C116" s="54"/>
@@ -25465,7 +25473,7 @@
       </c>
       <c r="DD116" s="133"/>
     </row>
-    <row r="117" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A117" s="54"/>
       <c r="B117" s="54"/>
       <c r="C117" s="54"/>
@@ -25660,7 +25668,7 @@
       <c r="EB117" s="54"/>
       <c r="EC117" s="54"/>
     </row>
-    <row r="118" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A118" s="54"/>
       <c r="B118" s="54"/>
       <c r="C118" s="54"/>
@@ -25855,7 +25863,7 @@
       <c r="EB118" s="54"/>
       <c r="EC118" s="54"/>
     </row>
-    <row r="119" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A119" s="54"/>
       <c r="B119" s="54"/>
       <c r="C119" s="54"/>
@@ -25994,7 +26002,7 @@
       <c r="EB119" s="54"/>
       <c r="EC119" s="54"/>
     </row>
-    <row r="120" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A120" s="54"/>
       <c r="B120" s="54"/>
       <c r="C120" s="54"/>
@@ -26142,7 +26150,7 @@
       <c r="EB120" s="54"/>
       <c r="EC120" s="54"/>
     </row>
-    <row r="121" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A121" s="54"/>
       <c r="B121" s="54"/>
       <c r="C121" s="54"/>
@@ -26285,7 +26293,7 @@
       <c r="EB121" s="54"/>
       <c r="EC121" s="54"/>
     </row>
-    <row r="122" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A122" s="54"/>
       <c r="B122" s="54"/>
       <c r="C122" s="54"/>
@@ -26459,7 +26467,7 @@
       <c r="EB122" s="54"/>
       <c r="EC122" s="54"/>
     </row>
-    <row r="123" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A123" s="54"/>
       <c r="B123" s="54"/>
       <c r="C123" s="54"/>
@@ -26576,7 +26584,7 @@
       <c r="EB123" s="54"/>
       <c r="EC123" s="54"/>
     </row>
-    <row r="124" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A124" s="54"/>
       <c r="B124" s="54"/>
       <c r="C124" s="54"/>
@@ -26715,7 +26723,7 @@
       <c r="EB124" s="54"/>
       <c r="EC124" s="54"/>
     </row>
-    <row r="125" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A125" s="54"/>
       <c r="B125" s="54"/>
       <c r="C125" s="54"/>
@@ -26850,7 +26858,7 @@
       <c r="EB125" s="54"/>
       <c r="EC125" s="54"/>
     </row>
-    <row r="126" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A126" s="54"/>
       <c r="B126" s="54"/>
       <c r="C126" s="54"/>
@@ -26985,7 +26993,7 @@
       <c r="EB126" s="54"/>
       <c r="EC126" s="54"/>
     </row>
-    <row r="127" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A127" s="54"/>
       <c r="B127" s="54"/>
       <c r="C127" s="54"/>
@@ -27120,7 +27128,7 @@
       <c r="EB127" s="54"/>
       <c r="EC127" s="54"/>
     </row>
-    <row r="128" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A128" s="54"/>
       <c r="B128" s="54"/>
       <c r="C128" s="54"/>
@@ -27281,7 +27289,7 @@
       <c r="EB128" s="54"/>
       <c r="EC128" s="54"/>
     </row>
-    <row r="129" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A129" s="54"/>
       <c r="B129" s="54"/>
       <c r="C129" s="54"/>
@@ -27444,7 +27452,7 @@
       <c r="EB129" s="54"/>
       <c r="EC129" s="54"/>
     </row>
-    <row r="130" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A130" s="54"/>
       <c r="B130" s="54"/>
       <c r="C130" s="54"/>
@@ -27599,7 +27607,7 @@
       <c r="EB130" s="54"/>
       <c r="EC130" s="54"/>
     </row>
-    <row r="131" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A131" s="54"/>
       <c r="B131" s="54"/>
       <c r="C131" s="54"/>
@@ -27750,7 +27758,7 @@
       <c r="EB131" s="54"/>
       <c r="EC131" s="54"/>
     </row>
-    <row r="132" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A132" s="54"/>
       <c r="B132" s="54"/>
       <c r="C132" s="54"/>
@@ -27885,7 +27893,7 @@
       <c r="EB132" s="54"/>
       <c r="EC132" s="54"/>
     </row>
-    <row r="133" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A133" s="54"/>
       <c r="B133" s="54"/>
       <c r="C133" s="54"/>
@@ -28044,7 +28052,7 @@
       <c r="EB133" s="54"/>
       <c r="EC133" s="54"/>
     </row>
-    <row r="134" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A134" s="54"/>
       <c r="B134" s="54"/>
       <c r="C134" s="54"/>
@@ -28179,7 +28187,7 @@
       <c r="EB134" s="54"/>
       <c r="EC134" s="54"/>
     </row>
-    <row r="135" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A135" s="54"/>
       <c r="B135" s="54"/>
       <c r="C135" s="54"/>
@@ -28314,7 +28322,7 @@
       <c r="EB135" s="54"/>
       <c r="EC135" s="54"/>
     </row>
-    <row r="136" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A136" s="54"/>
       <c r="B136" s="54"/>
       <c r="C136" s="54"/>
@@ -28449,7 +28457,7 @@
       <c r="EB136" s="54"/>
       <c r="EC136" s="54"/>
     </row>
-    <row r="137" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A137" s="54"/>
       <c r="B137" s="54"/>
       <c r="C137" s="54"/>
@@ -28584,7 +28592,7 @@
       <c r="EB137" s="54"/>
       <c r="EC137" s="54"/>
     </row>
-    <row r="138" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A138" s="54"/>
       <c r="B138" s="54"/>
       <c r="C138" s="54"/>
@@ -28719,7 +28727,7 @@
       <c r="EB138" s="54"/>
       <c r="EC138" s="54"/>
     </row>
-    <row r="139" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A139" s="54"/>
       <c r="B139" s="54"/>
       <c r="C139" s="54"/>
@@ -28854,7 +28862,7 @@
       <c r="EB139" s="54"/>
       <c r="EC139" s="54"/>
     </row>
-    <row r="140" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A140" s="54"/>
       <c r="B140" s="54"/>
       <c r="C140" s="54"/>
@@ -28989,7 +28997,7 @@
       <c r="EB140" s="54"/>
       <c r="EC140" s="54"/>
     </row>
-    <row r="141" spans="1:133" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A141" s="54"/>
       <c r="B141" s="54"/>
       <c r="C141" s="54"/>
@@ -29130,4 +29138,357 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA595E3-31D5-4D98-96E5-D4526FEB69B4}">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="82"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="79"/>
+      <c r="T8" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="80"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="82"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="54"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="82"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>